--- a/data/TC_01_DeleteLead.xlsx
+++ b/data/TC_01_DeleteLead.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="360" windowWidth="19815" windowHeight="7650"/>
@@ -33,14 +33,14 @@
     <t>crmsfa</t>
   </si>
   <si>
-    <t>123456791</t>
+    <t>1234567912</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,7 +161,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -196,7 +195,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -372,20 +370,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -413,24 +411,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
